--- a/data_year/zb/工业/按行业分大中型工业企业主要经济指标(2000-2002)/主营业务成本.xlsx
+++ b/data_year/zb/工业/按行业分大中型工业企业主要经济指标(2000-2002)/主营业务成本.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="B1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,387 +635,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>924.8461600000001</v>
-      </c>
-      <c r="C2" t="n">
-        <v>3178.29081</v>
-      </c>
-      <c r="D2" t="n">
-        <v>320.73668</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.01008</v>
-      </c>
-      <c r="F2" t="n">
-        <v>123.20158</v>
-      </c>
-      <c r="G2" t="n">
-        <v>2676.81043</v>
-      </c>
-      <c r="H2" t="n">
-        <v>770.13296</v>
-      </c>
-      <c r="I2" t="n">
-        <v>661.22037</v>
-      </c>
-      <c r="J2" t="n">
-        <v>171.68375</v>
-      </c>
-      <c r="K2" t="n">
-        <v>456.01995</v>
-      </c>
-      <c r="L2" t="n">
-        <v>39768.89</v>
-      </c>
-      <c r="M2" t="n">
-        <v>43.91227</v>
-      </c>
-      <c r="N2" t="n">
-        <v>114.00868</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1184.07903</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1082.62479</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>103.32982</v>
-      </c>
-      <c r="R2" t="n">
-        <v>391.50677</v>
-      </c>
-      <c r="S2" t="n">
-        <v>146.80912</v>
-      </c>
-      <c r="T2" t="n">
-        <v>52.64759</v>
-      </c>
-      <c r="U2" t="n">
-        <v>334.79291</v>
-      </c>
-      <c r="V2" t="n">
-        <v>582.52333</v>
-      </c>
-      <c r="W2" t="n">
-        <v>166.42064</v>
-      </c>
-      <c r="X2" t="n">
-        <v>658.32559</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>4677.15262</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>3627.28354</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>1916.73572</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>260.17023</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>3580.41875</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>1343.55476</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>2057.17176</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>150.04072</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>524.71375</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>523.83523</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>978.0259</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>70.57093999999999</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>471.41403</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>1218.09755</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>743.8829500000001</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>3263.75298</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>43.5858</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>961.84457</v>
-      </c>
-      <c r="C3" t="n">
-        <v>3961.43674</v>
-      </c>
-      <c r="D3" t="n">
-        <v>430.04943</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.008670000000000001</v>
-      </c>
-      <c r="F3" t="n">
-        <v>172.06062</v>
-      </c>
-      <c r="G3" t="n">
-        <v>3076.69761</v>
-      </c>
-      <c r="H3" t="n">
-        <v>654.57697</v>
-      </c>
-      <c r="I3" t="n">
-        <v>814.23747</v>
-      </c>
-      <c r="J3" t="n">
-        <v>221.38121</v>
-      </c>
-      <c r="K3" t="n">
-        <v>575.96185</v>
-      </c>
-      <c r="L3" t="n">
-        <v>47033.65</v>
-      </c>
-      <c r="M3" t="n">
-        <v>57.72903</v>
-      </c>
-      <c r="N3" t="n">
-        <v>139.30898</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1332.82339</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1223.81734</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>111.48183</v>
-      </c>
-      <c r="R3" t="n">
-        <v>514.8362100000001</v>
-      </c>
-      <c r="S3" t="n">
-        <v>163.68076</v>
-      </c>
-      <c r="T3" t="n">
-        <v>46.96648</v>
-      </c>
-      <c r="U3" t="n">
-        <v>390.37564</v>
-      </c>
-      <c r="V3" t="n">
-        <v>662.67557</v>
-      </c>
-      <c r="W3" t="n">
-        <v>178.92591</v>
-      </c>
-      <c r="X3" t="n">
-        <v>779.0323</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>5355.78565</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>5785.97415</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>2309.41036</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>314.22965</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>3681.94788</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>1276.41733</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>2194.00336</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>157.04084</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>691.31274</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>633.19801</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>1169.95885</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>78.12781</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>579.8612000000001</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>1482.52719</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>793.95412</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>3833.08634</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>48.53839</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>1131.21786</v>
-      </c>
-      <c r="C4" t="n">
-        <v>5077.99531</v>
-      </c>
-      <c r="D4" t="n">
-        <v>496.63</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.00202</v>
-      </c>
-      <c r="F4" t="n">
-        <v>182.48646</v>
-      </c>
-      <c r="G4" t="n">
-        <v>3418.16674</v>
-      </c>
-      <c r="H4" t="n">
-        <v>699.31934</v>
-      </c>
-      <c r="I4" t="n">
-        <v>954.45572</v>
-      </c>
-      <c r="J4" t="n">
-        <v>235.70782</v>
-      </c>
-      <c r="K4" t="n">
-        <v>666.78382</v>
-      </c>
-      <c r="L4" t="n">
-        <v>53839.14</v>
-      </c>
-      <c r="M4" t="n">
-        <v>62.43375</v>
-      </c>
-      <c r="N4" t="n">
-        <v>156.99101</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1646.76372</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1321.81981</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>121.74932</v>
-      </c>
-      <c r="R4" t="n">
-        <v>558.81098</v>
-      </c>
-      <c r="S4" t="n">
-        <v>182.19506</v>
-      </c>
-      <c r="T4" t="n">
-        <v>44.85311</v>
-      </c>
-      <c r="U4" t="n">
-        <v>433.80283</v>
-      </c>
-      <c r="V4" t="n">
-        <v>732.9433</v>
-      </c>
-      <c r="W4" t="n">
-        <v>218.78572</v>
-      </c>
-      <c r="X4" t="n">
-        <v>996.42852</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>6365.54209</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>6935.93169</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>2523.91807</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>348.22881</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>3748.95471</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>1345.3719</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>2386.20014</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>174.35218</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>780.18056</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>747.33358</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>1300.89263</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>91.22539999999999</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>687.69217</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>1693.52745</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>848.81712</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>4269.34384</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>54.38908</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
